--- a/Supplementary Table 1.xlsx
+++ b/Supplementary Table 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIVERSITÄT GÖTTINGEN (GAUG) [GGNB-UMG]\-PhD PROJECT (DG-UMG-GGNB)-\THESIS-PROJECT-ARTICLES\Retro_Dyslexia_Controls_connectivity_v10_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIVERSITÄT GÖTTINGEN (GAUG) [GGNB-UMG]\-PhD PROJECT (DG-UMG-GGNB)-\THESIS-PROJECT-ARTICLES\Retro_Dyslexia_Controls_connectivity_v12_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="105">
   <si>
     <t>Metric</t>
   </si>
@@ -130,9 +130,6 @@
     </r>
   </si>
   <si>
-    <t>P(Mean)</t>
-  </si>
-  <si>
     <t>Dyslexia &lt; Controls</t>
   </si>
   <si>
@@ -382,8 +379,12 @@
     <t>Note: Regions included in this table had 5 or more significantly different vertices. Regions in bold are language-, reading-, or speech-related.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Mean </t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="10"/>
         <color theme="1"/>
@@ -391,17 +392,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Abbreviations: </t>
+      <t>p</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ACC, anterior part of the cingulate gyrus and sulcus; aMCC, middle-anterior part of the cingulate gyrus and sulcus; dPCC, posterior-dorsal part of the cingulate gyrus; pMCC, middle-posterior part of the cingulate gyrus and sulcus; vPCC, posterior-ventral part of the cingulate gyrus.</t>
+      <t>(FWE)</t>
     </r>
   </si>
 </sst>
@@ -452,13 +454,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -516,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,9 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -540,28 +541,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -572,18 +558,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -591,18 +565,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -887,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,49 +901,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="E3" s="9">
         <v>4.3193000000000002E-2</v>
       </c>
       <c r="F3" s="1">
@@ -950,13 +951,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="A4" s="18"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="11">
         <v>4.4447E-2</v>
       </c>
       <c r="F4" s="2">
@@ -964,13 +965,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="A5" s="18"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11">
         <v>4.2892E-2</v>
       </c>
       <c r="F5" s="2">
@@ -978,13 +979,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="A6" s="18"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11">
         <v>4.3763999999999997E-2</v>
       </c>
       <c r="F6" s="2">
@@ -992,13 +993,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11">
         <v>4.2571999999999999E-2</v>
       </c>
       <c r="F7" s="2">
@@ -1006,13 +1007,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.4038000000000001E-2</v>
       </c>
       <c r="F8" s="2">
@@ -1020,13 +1021,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11">
         <v>4.5217E-2</v>
       </c>
       <c r="F9" s="2">
@@ -1034,13 +1035,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.6961000000000003E-2</v>
       </c>
       <c r="F10" s="2">
@@ -1048,13 +1049,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="11">
         <v>4.3711E-2</v>
       </c>
       <c r="F11" s="2">
@@ -1062,13 +1063,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="11">
         <v>4.2949000000000001E-2</v>
       </c>
       <c r="F12" s="2">
@@ -1076,13 +1077,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>4.1972000000000002E-2</v>
       </c>
       <c r="F13" s="2">
@@ -1090,13 +1091,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="11">
         <v>4.3926E-2</v>
       </c>
       <c r="F14" s="2">
@@ -1104,13 +1105,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="A15" s="18"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11">
         <v>4.3364E-2</v>
       </c>
       <c r="F15" s="2">
@@ -1118,13 +1119,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="F16" s="2">
@@ -1132,13 +1133,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11">
         <v>4.6997999999999998E-2</v>
       </c>
       <c r="F17" s="2">
@@ -1146,13 +1147,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="A18" s="18"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="11">
         <v>4.6066000000000003E-2</v>
       </c>
       <c r="F18" s="2">
@@ -1160,13 +1161,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="11">
         <v>4.3090999999999997E-2</v>
       </c>
       <c r="F19" s="2">
@@ -1174,13 +1175,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="11">
         <v>4.1957000000000001E-2</v>
       </c>
       <c r="F20" s="2">
@@ -1188,13 +1189,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="11">
         <v>4.6939000000000002E-2</v>
       </c>
       <c r="F21" s="2">
@@ -1202,13 +1203,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="11">
         <v>4.6359999999999998E-2</v>
       </c>
       <c r="F22" s="2">
@@ -1216,17 +1217,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="19" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11">
         <v>3.7536E-2</v>
       </c>
       <c r="F23" s="2">
@@ -1234,13 +1235,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="A24" s="18"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="11">
         <v>4.2049999999999997E-2</v>
       </c>
       <c r="F24" s="2">
@@ -1248,13 +1249,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="11">
         <v>4.1438999999999997E-2</v>
       </c>
       <c r="F25" s="2">
@@ -1262,13 +1263,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="11">
         <v>4.3597999999999998E-2</v>
       </c>
       <c r="F26" s="2">
@@ -1276,13 +1277,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="11">
         <v>3.8753999999999997E-2</v>
       </c>
       <c r="F27" s="2">
@@ -1290,13 +1291,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="A28" s="18"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="11">
         <v>3.2839E-2</v>
       </c>
       <c r="F28" s="2">
@@ -1304,13 +1305,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="11">
         <v>4.3915999999999997E-2</v>
       </c>
       <c r="F29" s="2">
@@ -1318,13 +1319,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="16" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="11">
         <v>4.5248999999999998E-2</v>
       </c>
       <c r="F30" s="2">
@@ -1332,13 +1333,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="11">
         <v>3.3548000000000001E-2</v>
       </c>
       <c r="F31" s="2">
@@ -1346,13 +1347,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11">
         <v>4.2222000000000003E-2</v>
       </c>
       <c r="F32" s="2">
@@ -1360,13 +1361,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="A33" s="18"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="11">
         <v>4.5193999999999998E-2</v>
       </c>
       <c r="F33" s="2">
@@ -1374,13 +1375,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="11">
         <v>3.8821000000000001E-2</v>
       </c>
       <c r="F34" s="2">
@@ -1388,13 +1389,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="17">
+      <c r="A35" s="18"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="11">
         <v>4.1367000000000001E-2</v>
       </c>
       <c r="F35" s="2">
@@ -1402,13 +1403,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="11">
         <v>3.9702000000000001E-2</v>
       </c>
       <c r="F36" s="2">
@@ -1416,13 +1417,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="17">
+      <c r="A37" s="18"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="11">
         <v>3.2737000000000002E-2</v>
       </c>
       <c r="F37" s="2">
@@ -1430,13 +1431,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="A38" s="18"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="11">
         <v>4.4498000000000003E-2</v>
       </c>
       <c r="F38" s="2">
@@ -1444,13 +1445,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="A39" s="18"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="11">
         <v>4.3943999999999997E-2</v>
       </c>
       <c r="F39" s="2">
@@ -1458,13 +1459,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="A40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="11">
         <v>3.7516000000000001E-2</v>
       </c>
       <c r="F40" s="2">
@@ -1472,13 +1473,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="A41" s="18"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="11">
         <v>4.0837999999999999E-2</v>
       </c>
       <c r="F41" s="2">
@@ -1486,13 +1487,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="24">
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="14">
         <v>4.6351000000000003E-2</v>
       </c>
       <c r="F42" s="3">
@@ -1500,19 +1501,19 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="D43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9">
         <v>3.13E-3</v>
       </c>
       <c r="F43" s="1">
@@ -1520,13 +1521,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="17">
+      <c r="A44" s="18"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="11">
         <v>3.7959999999999999E-3</v>
       </c>
       <c r="F44" s="2">
@@ -1534,13 +1535,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="A45" s="18"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="11">
         <v>2.598E-3</v>
       </c>
       <c r="F45" s="2">
@@ -1548,13 +1549,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="17">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="11">
         <v>4.0400000000000002E-3</v>
       </c>
       <c r="F46" s="2">
@@ -1562,13 +1563,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="A47" s="18"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="11">
         <v>3.0430000000000001E-3</v>
       </c>
       <c r="F47" s="2">
@@ -1576,13 +1577,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="A48" s="18"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="11">
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="F48" s="2">
@@ -1590,13 +1591,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="A49" s="18"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="11">
         <v>2.4199999999999998E-3</v>
       </c>
       <c r="F49" s="2">
@@ -1604,13 +1605,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="A50" s="18"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="11">
         <v>2.4771999999999999E-2</v>
       </c>
       <c r="F50" s="2">
@@ -1618,13 +1619,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="16" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="11">
         <v>4.3020000000000003E-3</v>
       </c>
       <c r="F51" s="2">
@@ -1632,13 +1633,13 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="A52" s="18"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="11">
         <v>1.8911000000000001E-2</v>
       </c>
       <c r="F52" s="2">
@@ -1646,13 +1647,13 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="17">
+      <c r="A53" s="18"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="11">
         <v>2.6439000000000001E-2</v>
       </c>
       <c r="F53" s="2">
@@ -1660,13 +1661,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="17">
+      <c r="A54" s="18"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="11">
         <v>2.7720000000000002E-3</v>
       </c>
       <c r="F54" s="2">
@@ -1674,13 +1675,13 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="17">
+      <c r="A55" s="18"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="11">
         <v>2.493E-3</v>
       </c>
       <c r="F55" s="2">
@@ -1688,13 +1689,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="17">
+      <c r="A56" s="18"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="11">
         <v>2.546E-2</v>
       </c>
       <c r="F56" s="2">
@@ -1702,13 +1703,13 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="17">
+      <c r="A57" s="18"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="11">
         <v>2.784E-2</v>
       </c>
       <c r="F57" s="2">
@@ -1716,13 +1717,13 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="17">
+      <c r="A58" s="18"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="11">
         <v>2.0149999999999999E-3</v>
       </c>
       <c r="F58" s="2">
@@ -1730,13 +1731,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="17">
+      <c r="A59" s="18"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="11">
         <v>2.8990000000000001E-3</v>
       </c>
       <c r="F59" s="2">
@@ -1744,13 +1745,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="17">
+      <c r="A60" s="18"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="11">
         <v>4.561E-3</v>
       </c>
       <c r="F60" s="2">
@@ -1758,13 +1759,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="18" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="11">
         <v>3.2560000000000002E-3</v>
       </c>
       <c r="F61" s="2">
@@ -1772,13 +1773,13 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="17">
+      <c r="A62" s="18"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="11">
         <v>1.6884E-2</v>
       </c>
       <c r="F62" s="2">
@@ -1786,13 +1787,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="17">
+      <c r="A63" s="18"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="11">
         <v>2.1819999999999999E-3</v>
       </c>
       <c r="F63" s="2">
@@ -1800,13 +1801,13 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="17">
+      <c r="A64" s="18"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="11">
         <v>3.235E-3</v>
       </c>
       <c r="F64" s="2">
@@ -1814,13 +1815,13 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="17">
+      <c r="A65" s="18"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="11">
         <v>2.3928999999999999E-2</v>
       </c>
       <c r="F65" s="2">
@@ -1828,13 +1829,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="16" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="11">
         <v>2.8700000000000002E-3</v>
       </c>
       <c r="F66" s="2">
@@ -1842,13 +1843,13 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E67" s="17">
+      <c r="A67" s="18"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="11">
         <v>1.7639999999999999E-3</v>
       </c>
       <c r="F67" s="2">
@@ -1856,13 +1857,13 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" s="17">
+      <c r="A68" s="18"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="11">
         <v>3.9519999999999998E-3</v>
       </c>
       <c r="F68" s="2">
@@ -1870,13 +1871,13 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="17">
+      <c r="A69" s="18"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="11">
         <v>2.6740000000000002E-3</v>
       </c>
       <c r="F69" s="2">
@@ -1884,13 +1885,13 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="16" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="11">
         <v>2.5895999999999999E-2</v>
       </c>
       <c r="F70" s="2">
@@ -1898,13 +1899,13 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="17">
+      <c r="A71" s="18"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="11">
         <v>2.5739999999999999E-3</v>
       </c>
       <c r="F71" s="2">
@@ -1912,13 +1913,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="17">
+      <c r="A72" s="18"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="11">
         <v>4.6740000000000002E-3</v>
       </c>
       <c r="F72" s="2">
@@ -1926,13 +1927,13 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="17">
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="11">
         <v>3.3019999999999998E-3</v>
       </c>
       <c r="F73" s="2">
@@ -1940,13 +1941,13 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="17">
+      <c r="A74" s="18"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="11">
         <v>1.4557E-2</v>
       </c>
       <c r="F74" s="2">
@@ -1954,13 +1955,13 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E75" s="17">
+      <c r="A75" s="18"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="11">
         <v>3.0793999999999998E-2</v>
       </c>
       <c r="F75" s="2">
@@ -1968,13 +1969,13 @@
       </c>
     </row>
     <row r="76" spans="1:6" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E76" s="17">
+      <c r="A76" s="18"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="11">
         <v>2.3945000000000001E-2</v>
       </c>
       <c r="F76" s="2">
@@ -1982,13 +1983,13 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E77" s="17">
+      <c r="A77" s="18"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="11">
         <v>7.8740000000000008E-3</v>
       </c>
       <c r="F77" s="2">
@@ -1996,13 +1997,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="17">
+      <c r="A78" s="18"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="11">
         <v>7.0629999999999998E-3</v>
       </c>
       <c r="F78" s="2">
@@ -2010,13 +2011,13 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="17">
+      <c r="A79" s="18"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="11">
         <v>4.2880000000000001E-3</v>
       </c>
       <c r="F79" s="2">
@@ -2024,13 +2025,13 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E80" s="17">
+      <c r="A80" s="18"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="11">
         <v>7.2690000000000003E-3</v>
       </c>
       <c r="F80" s="2">
@@ -2038,13 +2039,13 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="16" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="11">
         <v>1.1754000000000001E-2</v>
       </c>
       <c r="F81" s="2">
@@ -2052,13 +2053,13 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="17">
+      <c r="A82" s="18"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="11">
         <v>1.7989000000000002E-2</v>
       </c>
       <c r="F82" s="2">
@@ -2066,13 +2067,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" s="17">
+      <c r="A83" s="18"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="11">
         <v>2.1204000000000001E-2</v>
       </c>
       <c r="F83" s="2">
@@ -2080,13 +2081,13 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" s="17">
+      <c r="A84" s="18"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="11">
         <v>2.7522000000000001E-2</v>
       </c>
       <c r="F84" s="2">
@@ -2094,13 +2095,13 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" s="17">
+      <c r="A85" s="18"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="11">
         <v>2.385E-3</v>
       </c>
       <c r="F85" s="2">
@@ -2108,13 +2109,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="17">
+      <c r="A86" s="18"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="11">
         <v>4.6579999999999998E-3</v>
       </c>
       <c r="F86" s="2">
@@ -2122,13 +2123,13 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="17">
+      <c r="A87" s="18"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="11">
         <v>3.5920000000000001E-3</v>
       </c>
       <c r="F87" s="2">
@@ -2136,13 +2137,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="17">
+      <c r="A88" s="18"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E88" s="11">
         <v>3.9849999999999998E-3</v>
       </c>
       <c r="F88" s="2">
@@ -2150,13 +2151,13 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="16" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="11">
         <v>2.3508999999999999E-2</v>
       </c>
       <c r="F89" s="2">
@@ -2164,13 +2165,13 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="17">
+      <c r="A90" s="18"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="11">
         <v>3.5046000000000001E-2</v>
       </c>
       <c r="F90" s="2">
@@ -2178,13 +2179,13 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="17">
+      <c r="A91" s="18"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="11">
         <v>1.72E-3</v>
       </c>
       <c r="F91" s="2">
@@ -2192,13 +2193,13 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="17">
+      <c r="A92" s="18"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="11">
         <v>6.1539999999999997E-3</v>
       </c>
       <c r="F92" s="2">
@@ -2206,13 +2207,13 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E93" s="17">
+      <c r="A93" s="18"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="11">
         <v>1.3155999999999999E-2</v>
       </c>
       <c r="F93" s="2">
@@ -2220,13 +2221,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="17">
+      <c r="A94" s="18"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="11">
         <v>9.6150000000000003E-3</v>
       </c>
       <c r="F94" s="2">
@@ -2234,13 +2235,13 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95" s="17">
+      <c r="A95" s="18"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="11">
         <v>1.6544E-2</v>
       </c>
       <c r="F95" s="2">
@@ -2248,13 +2249,13 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="17">
+      <c r="A96" s="18"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="11">
         <v>2.7012000000000001E-2</v>
       </c>
       <c r="F96" s="2">
@@ -2262,13 +2263,13 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E97" s="17">
+      <c r="A97" s="18"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" s="11">
         <v>2.6860999999999999E-2</v>
       </c>
       <c r="F97" s="2">
@@ -2276,13 +2277,13 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E98" s="17">
+      <c r="A98" s="18"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E98" s="11">
         <v>2.8905E-2</v>
       </c>
       <c r="F98" s="2">
@@ -2290,13 +2291,13 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="17">
+      <c r="A99" s="18"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E99" s="11">
         <v>3.6565E-2</v>
       </c>
       <c r="F99" s="2">
@@ -2304,13 +2305,13 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="17">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="11">
         <v>2.0669999999999998E-3</v>
       </c>
       <c r="F100" s="2">
@@ -2318,13 +2319,13 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E101" s="17">
+      <c r="A101" s="18"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101" s="11">
         <v>4.2760000000000003E-3</v>
       </c>
       <c r="F101" s="2">
@@ -2332,13 +2333,13 @@
       </c>
     </row>
     <row r="102" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="17">
+      <c r="A102" s="18"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="11">
         <v>1.1816999999999999E-2</v>
       </c>
       <c r="F102" s="2">
@@ -2346,13 +2347,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E103" s="17">
+      <c r="A103" s="18"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E103" s="11">
         <v>1.0919999999999999E-2</v>
       </c>
       <c r="F103" s="2">
@@ -2360,13 +2361,13 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E104" s="17">
+      <c r="A104" s="18"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="11">
         <v>3.3911999999999998E-2</v>
       </c>
       <c r="F104" s="2">
@@ -2374,13 +2375,13 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E105" s="17">
+      <c r="A105" s="18"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="11">
         <v>3.5726000000000001E-2</v>
       </c>
       <c r="F105" s="2">
@@ -2388,13 +2389,13 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" s="17">
+      <c r="A106" s="18"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="11">
         <v>1.9859999999999999E-3</v>
       </c>
       <c r="F106" s="2">
@@ -2402,13 +2403,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="17">
+      <c r="A107" s="18"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="11">
         <v>1.0241E-2</v>
       </c>
       <c r="F107" s="2">
@@ -2416,13 +2417,13 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E108" s="17">
+      <c r="A108" s="18"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="11">
         <v>6.7130000000000002E-3</v>
       </c>
       <c r="F108" s="2">
@@ -2430,13 +2431,13 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="17">
+      <c r="A109" s="18"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" s="11">
         <v>1.0300999999999999E-2</v>
       </c>
       <c r="F109" s="2">
@@ -2444,13 +2445,13 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E110" s="17">
+      <c r="A110" s="18"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="11">
         <v>1.9134999999999999E-2</v>
       </c>
       <c r="F110" s="2">
@@ -2458,13 +2459,13 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="16" t="s">
+      <c r="A111" s="18"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="11">
         <v>2.6502000000000001E-2</v>
       </c>
       <c r="F111" s="2">
@@ -2472,13 +2473,13 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E112" s="17">
+      <c r="A112" s="18"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E112" s="11">
         <v>1.586E-3</v>
       </c>
       <c r="F112" s="2">
@@ -2486,13 +2487,13 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E113" s="17">
+      <c r="A113" s="18"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="11">
         <v>7.1370000000000001E-3</v>
       </c>
       <c r="F113" s="2">
@@ -2500,13 +2501,13 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114" s="17">
+      <c r="A114" s="18"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="11">
         <v>4.1110000000000001E-3</v>
       </c>
       <c r="F114" s="2">
@@ -2514,13 +2515,13 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E115" s="17">
+      <c r="A115" s="18"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="11">
         <v>9.2829999999999996E-3</v>
       </c>
       <c r="F115" s="2">
@@ -2528,13 +2529,13 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E116" s="17">
+      <c r="A116" s="18"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="11">
         <v>7.8919999999999997E-3</v>
       </c>
       <c r="F116" s="2">
@@ -2542,13 +2543,13 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E117" s="17">
+      <c r="A117" s="18"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E117" s="11">
         <v>1.9061999999999999E-2</v>
       </c>
       <c r="F117" s="2">
@@ -2556,13 +2557,13 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E118" s="17">
+      <c r="A118" s="18"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="11">
         <v>3.6930999999999999E-2</v>
       </c>
       <c r="F118" s="2">
@@ -2570,13 +2571,13 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E119" s="17">
+      <c r="A119" s="18"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E119" s="11">
         <v>3.2881000000000001E-2</v>
       </c>
       <c r="F119" s="2">
@@ -2584,13 +2585,13 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E120" s="17">
+      <c r="A120" s="18"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E120" s="11">
         <v>3.3673000000000002E-2</v>
       </c>
       <c r="F120" s="2">
@@ -2598,17 +2599,17 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="18"/>
+      <c r="B121" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E121" s="17">
+      <c r="E121" s="11">
         <v>4.7792000000000001E-2</v>
       </c>
       <c r="F121" s="2">
@@ -2616,13 +2617,13 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E122" s="17">
+      <c r="A122" s="18"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="11">
         <v>3.9150999999999998E-2</v>
       </c>
       <c r="F122" s="2">
@@ -2630,13 +2631,13 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="17">
+      <c r="A123" s="18"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="11">
         <v>3.7786E-2</v>
       </c>
       <c r="F123" s="2">
@@ -2644,13 +2645,13 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E124" s="17">
+      <c r="A124" s="18"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" s="11">
         <v>3.6162E-2</v>
       </c>
       <c r="F124" s="2">
@@ -2658,13 +2659,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E125" s="17">
+      <c r="A125" s="18"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E125" s="11">
         <v>4.0089E-2</v>
       </c>
       <c r="F125" s="2">
@@ -2672,13 +2673,13 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="16" t="s">
+      <c r="A126" s="18"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E126" s="17">
+      <c r="E126" s="11">
         <v>3.9983999999999999E-2</v>
       </c>
       <c r="F126" s="2">
@@ -2686,13 +2687,13 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="16" t="s">
+      <c r="A127" s="18"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="11">
         <v>4.5720999999999998E-2</v>
       </c>
       <c r="F127" s="2">
@@ -2700,13 +2701,13 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="18" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="17">
+      <c r="E128" s="11">
         <v>4.1579999999999999E-2</v>
       </c>
       <c r="F128" s="2">
@@ -2714,13 +2715,13 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E129" s="17">
+      <c r="A129" s="18"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" s="11">
         <v>3.9391000000000002E-2</v>
       </c>
       <c r="F129" s="2">
@@ -2728,13 +2729,13 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E130" s="17">
+      <c r="A130" s="18"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E130" s="11">
         <v>4.2007000000000003E-2</v>
       </c>
       <c r="F130" s="2">
@@ -2742,13 +2743,13 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E131" s="17">
+      <c r="A131" s="18"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" s="11">
         <v>4.7837999999999999E-2</v>
       </c>
       <c r="F131" s="2">
@@ -2756,13 +2757,13 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E132" s="17">
+      <c r="A132" s="18"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="11">
         <v>3.9867E-2</v>
       </c>
       <c r="F132" s="2">
@@ -2770,13 +2771,13 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E133" s="17">
+      <c r="A133" s="18"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E133" s="11">
         <v>3.8363000000000001E-2</v>
       </c>
       <c r="F133" s="2">
@@ -2784,13 +2785,13 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E134" s="17">
+      <c r="A134" s="18"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E134" s="11">
         <v>3.8510000000000003E-2</v>
       </c>
       <c r="F134" s="2">
@@ -2798,13 +2799,13 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E135" s="24">
+      <c r="A135" s="19"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="14">
         <v>4.2826000000000003E-2</v>
       </c>
       <c r="F135" s="3">
@@ -2812,19 +2813,19 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="25" t="s">
+      <c r="B136" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E136" s="13">
+      <c r="D136" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="9">
         <v>3.424E-3</v>
       </c>
       <c r="F136" s="1">
@@ -2832,13 +2833,13 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="17">
+      <c r="A137" s="18"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="11">
         <v>3.4350000000000001E-3</v>
       </c>
       <c r="F137" s="2">
@@ -2846,13 +2847,13 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="17">
+      <c r="A138" s="18"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="11">
         <v>2.0019999999999999E-3</v>
       </c>
       <c r="F138" s="2">
@@ -2860,13 +2861,13 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E139" s="17">
+      <c r="A139" s="18"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E139" s="11">
         <v>2.222E-3</v>
       </c>
       <c r="F139" s="2">
@@ -2874,13 +2875,13 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="17">
+      <c r="A140" s="18"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="11">
         <v>1.2895999999999999E-2</v>
       </c>
       <c r="F140" s="2">
@@ -2888,13 +2889,13 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E141" s="17">
+      <c r="A141" s="18"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="11">
         <v>4.0229999999999997E-3</v>
       </c>
       <c r="F141" s="2">
@@ -2902,13 +2903,13 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142" s="17">
+      <c r="A142" s="18"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" s="11">
         <v>1.4270000000000001E-3</v>
       </c>
       <c r="F142" s="2">
@@ -2916,13 +2917,13 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E143" s="17">
+      <c r="A143" s="18"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="11">
         <v>1.9780000000000002E-3</v>
       </c>
       <c r="F143" s="2">
@@ -2930,13 +2931,13 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" s="17">
+      <c r="A144" s="18"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="11">
         <v>1.1875999999999999E-2</v>
       </c>
       <c r="F144" s="2">
@@ -2944,13 +2945,13 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="16" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E145" s="11">
         <v>3.4970000000000001E-3</v>
       </c>
       <c r="F145" s="2">
@@ -2958,13 +2959,13 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E146" s="17">
+      <c r="A146" s="18"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="11">
         <v>1.5984000000000002E-2</v>
       </c>
       <c r="F146" s="2">
@@ -2972,13 +2973,13 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E147" s="17">
+      <c r="A147" s="18"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="11">
         <v>1.4165000000000001E-2</v>
       </c>
       <c r="F147" s="2">
@@ -2986,13 +2987,13 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E148" s="17">
+      <c r="A148" s="18"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E148" s="11">
         <v>3.101E-3</v>
       </c>
       <c r="F148" s="2">
@@ -3000,13 +3001,13 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E149" s="17">
+      <c r="A149" s="18"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="11">
         <v>2.2680000000000001E-3</v>
       </c>
       <c r="F149" s="2">
@@ -3014,13 +3015,13 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="17">
+      <c r="A150" s="18"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="11">
         <v>6.2040000000000003E-3</v>
       </c>
       <c r="F150" s="2">
@@ -3028,13 +3029,13 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="17">
+      <c r="A151" s="18"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E151" s="11">
         <v>3.4559999999999999E-3</v>
       </c>
       <c r="F151" s="2">
@@ -3042,13 +3043,13 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E152" s="17">
+      <c r="A152" s="18"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E152" s="11">
         <v>1.6442999999999999E-2</v>
       </c>
       <c r="F152" s="2">
@@ -3056,13 +3057,13 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E153" s="17">
+      <c r="A153" s="18"/>
+      <c r="B153" s="21"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E153" s="11">
         <v>2.5538999999999999E-2</v>
       </c>
       <c r="F153" s="2">
@@ -3070,13 +3071,13 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E154" s="17">
+      <c r="A154" s="18"/>
+      <c r="B154" s="21"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154" s="11">
         <v>1.4189999999999999E-2</v>
       </c>
       <c r="F154" s="2">
@@ -3084,13 +3085,13 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="18" t="s">
+      <c r="A155" s="18"/>
+      <c r="B155" s="21"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="17">
+      <c r="E155" s="11">
         <v>3.7139999999999999E-3</v>
       </c>
       <c r="F155" s="2">
@@ -3098,13 +3099,13 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E156" s="17">
+      <c r="A156" s="18"/>
+      <c r="B156" s="21"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E156" s="11">
         <v>1.1683000000000001E-2</v>
       </c>
       <c r="F156" s="2">
@@ -3112,13 +3113,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E157" s="17">
+      <c r="A157" s="18"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E157" s="11">
         <v>2.3106000000000002E-2</v>
       </c>
       <c r="F157" s="2">
@@ -3126,13 +3127,13 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E158" s="17">
+      <c r="A158" s="18"/>
+      <c r="B158" s="21"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E158" s="11">
         <v>1.9059999999999999E-3</v>
       </c>
       <c r="F158" s="2">
@@ -3140,13 +3141,13 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="17">
+      <c r="A159" s="18"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E159" s="11">
         <v>4.0590000000000001E-3</v>
       </c>
       <c r="F159" s="2">
@@ -3154,13 +3155,13 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="17">
+      <c r="A160" s="18"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="11">
         <v>2.627E-3</v>
       </c>
       <c r="F160" s="2">
@@ -3168,13 +3169,13 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="16" t="s">
+      <c r="A161" s="18"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E161" s="17">
+      <c r="E161" s="11">
         <v>3.1029999999999999E-3</v>
       </c>
       <c r="F161" s="2">
@@ -3182,13 +3183,13 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E162" s="17">
+      <c r="A162" s="18"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="11">
         <v>4.4520000000000002E-3</v>
       </c>
       <c r="F162" s="2">
@@ -3196,13 +3197,13 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E163" s="17">
+      <c r="A163" s="18"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E163" s="11">
         <v>1.2511E-2</v>
       </c>
       <c r="F163" s="2">
@@ -3210,13 +3211,13 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E164" s="17">
+      <c r="A164" s="18"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E164" s="11">
         <v>1.7904E-2</v>
       </c>
       <c r="F164" s="2">
@@ -3224,13 +3225,13 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E165" s="17">
+      <c r="A165" s="18"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E165" s="11">
         <v>1.4106E-2</v>
       </c>
       <c r="F165" s="2">
@@ -3238,13 +3239,13 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E166" s="17">
+      <c r="A166" s="18"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E166" s="11">
         <v>2.2967999999999999E-2</v>
       </c>
       <c r="F166" s="2">
@@ -3252,13 +3253,13 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E167" s="17">
+      <c r="A167" s="18"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E167" s="11">
         <v>1.7343000000000001E-2</v>
       </c>
       <c r="F167" s="2">
@@ -3266,13 +3267,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="17">
+      <c r="A168" s="18"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="11">
         <v>3.0609999999999999E-3</v>
       </c>
       <c r="F168" s="2">
@@ -3280,13 +3281,13 @@
       </c>
     </row>
     <row r="169" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E169" s="17">
+      <c r="A169" s="18"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E169" s="11">
         <v>1.356E-3</v>
       </c>
       <c r="F169" s="2">
@@ -3294,13 +3295,13 @@
       </c>
     </row>
     <row r="170" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E170" s="17">
+      <c r="A170" s="18"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E170" s="11">
         <v>2.8479999999999998E-3</v>
       </c>
       <c r="F170" s="2">
@@ -3308,13 +3309,13 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="19"/>
-      <c r="D171" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E171" s="17">
+      <c r="A171" s="18"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E171" s="11">
         <v>2.2850000000000001E-3</v>
       </c>
       <c r="F171" s="2">
@@ -3322,13 +3323,13 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" s="17">
+      <c r="A172" s="18"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E172" s="11">
         <v>1.3226E-2</v>
       </c>
       <c r="F172" s="2">
@@ -3336,13 +3337,13 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E173" s="17">
+      <c r="A173" s="18"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E173" s="11">
         <v>5.1180000000000002E-3</v>
       </c>
       <c r="F173" s="2">
@@ -3350,13 +3351,13 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E174" s="17">
+      <c r="A174" s="18"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E174" s="11">
         <v>1.1564E-2</v>
       </c>
       <c r="F174" s="2">
@@ -3364,13 +3365,13 @@
       </c>
     </row>
     <row r="175" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E175" s="17">
+      <c r="A175" s="18"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E175" s="11">
         <v>1.2199E-2</v>
       </c>
       <c r="F175" s="2">
@@ -3378,13 +3379,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E176" s="17">
+      <c r="A176" s="18"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="11">
         <v>4.8409999999999998E-3</v>
       </c>
       <c r="F176" s="2">
@@ -3392,13 +3393,13 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E177" s="17">
+      <c r="A177" s="18"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E177" s="11">
         <v>5.2170000000000003E-3</v>
       </c>
       <c r="F177" s="2">
@@ -3406,13 +3407,13 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E178" s="17">
+      <c r="A178" s="18"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E178" s="11">
         <v>3.5630000000000002E-3</v>
       </c>
       <c r="F178" s="2">
@@ -3420,13 +3421,13 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="16" t="s">
+      <c r="A179" s="18"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E179" s="17">
+      <c r="E179" s="11">
         <v>1.3873E-2</v>
       </c>
       <c r="F179" s="2">
@@ -3434,13 +3435,13 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E180" s="17">
+      <c r="A180" s="18"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="11">
         <v>9.4090000000000007E-3</v>
       </c>
       <c r="F180" s="2">
@@ -3448,13 +3449,13 @@
       </c>
     </row>
     <row r="181" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E181" s="17">
+      <c r="A181" s="18"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E181" s="11">
         <v>1.0437999999999999E-2</v>
       </c>
       <c r="F181" s="2">
@@ -3462,13 +3463,13 @@
       </c>
     </row>
     <row r="182" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E182" s="17">
+      <c r="A182" s="18"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" s="11">
         <v>1.6322E-2</v>
       </c>
       <c r="F182" s="2">
@@ -3476,13 +3477,13 @@
       </c>
     </row>
     <row r="183" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E183" s="17">
+      <c r="A183" s="18"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E183" s="11">
         <v>1.8672000000000001E-2</v>
       </c>
       <c r="F183" s="2">
@@ -3490,13 +3491,13 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E184" s="17">
+      <c r="A184" s="18"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E184" s="11">
         <v>3.3730000000000001E-3</v>
       </c>
       <c r="F184" s="2">
@@ -3504,13 +3505,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E185" s="17">
+      <c r="A185" s="18"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="11">
         <v>1.9620000000000002E-3</v>
       </c>
       <c r="F185" s="2">
@@ -3518,13 +3519,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E186" s="17">
+      <c r="A186" s="18"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E186" s="11">
         <v>4.2630000000000003E-3</v>
       </c>
       <c r="F186" s="2">
@@ -3532,13 +3533,13 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E187" s="17">
+      <c r="A187" s="18"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E187" s="11">
         <v>1.1245E-2</v>
       </c>
       <c r="F187" s="2">
@@ -3546,13 +3547,13 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="16" t="s">
+      <c r="A188" s="18"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E188" s="17">
+      <c r="E188" s="11">
         <v>1.9115E-2</v>
       </c>
       <c r="F188" s="2">
@@ -3560,13 +3561,13 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E189" s="17">
+      <c r="A189" s="18"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="11">
         <v>1.253E-3</v>
       </c>
       <c r="F189" s="2">
@@ -3574,13 +3575,13 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" s="17">
+      <c r="A190" s="18"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E190" s="11">
         <v>1.6192000000000002E-2</v>
       </c>
       <c r="F190" s="2">
@@ -3588,13 +3589,13 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E191" s="17">
+      <c r="A191" s="18"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E191" s="11">
         <v>1.1698999999999999E-2</v>
       </c>
       <c r="F191" s="2">
@@ -3602,13 +3603,13 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E192" s="17">
+      <c r="A192" s="18"/>
+      <c r="B192" s="21"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E192" s="11">
         <v>1.7748E-2</v>
       </c>
       <c r="F192" s="2">
@@ -3616,13 +3617,13 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="16" t="s">
+      <c r="A193" s="18"/>
+      <c r="B193" s="21"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="11">
         <v>2.2766000000000002E-2</v>
       </c>
       <c r="F193" s="2">
@@ -3630,13 +3631,13 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E194" s="17">
+      <c r="A194" s="18"/>
+      <c r="B194" s="21"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E194" s="11">
         <v>1.4821000000000001E-2</v>
       </c>
       <c r="F194" s="2">
@@ -3644,13 +3645,13 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E195" s="17">
+      <c r="A195" s="18"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E195" s="11">
         <v>5.1269999999999996E-3</v>
       </c>
       <c r="F195" s="2">
@@ -3658,13 +3659,13 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E196" s="17">
+      <c r="A196" s="18"/>
+      <c r="B196" s="21"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="11">
         <v>1.6990000000000002E-2</v>
       </c>
       <c r="F196" s="2">
@@ -3672,13 +3673,13 @@
       </c>
     </row>
     <row r="197" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E197" s="17">
+      <c r="A197" s="18"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="11">
         <v>1.8685E-2</v>
       </c>
       <c r="F197" s="2">
@@ -3686,13 +3687,13 @@
       </c>
     </row>
     <row r="198" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E198" s="17">
+      <c r="A198" s="18"/>
+      <c r="B198" s="21"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E198" s="11">
         <v>1.4895E-2</v>
       </c>
       <c r="F198" s="2">
@@ -3700,13 +3701,13 @@
       </c>
     </row>
     <row r="199" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="19"/>
-      <c r="D199" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E199" s="17">
+      <c r="A199" s="18"/>
+      <c r="B199" s="21"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E199" s="11">
         <v>1.7519E-2</v>
       </c>
       <c r="F199" s="2">
@@ -3714,13 +3715,13 @@
       </c>
     </row>
     <row r="200" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="19"/>
-      <c r="D200" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E200" s="17">
+      <c r="A200" s="18"/>
+      <c r="B200" s="21"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E200" s="11">
         <v>1.7730000000000001E-3</v>
       </c>
       <c r="F200" s="2">
@@ -3728,13 +3729,13 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="19"/>
-      <c r="D201" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E201" s="17">
+      <c r="A201" s="18"/>
+      <c r="B201" s="21"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E201" s="11">
         <v>5.3099999999999996E-3</v>
       </c>
       <c r="F201" s="2">
@@ -3742,13 +3743,13 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="19"/>
-      <c r="D202" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E202" s="17">
+      <c r="A202" s="18"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E202" s="11">
         <v>3.9610000000000001E-3</v>
       </c>
       <c r="F202" s="2">
@@ -3756,13 +3757,13 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="19"/>
-      <c r="D203" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E203" s="17">
+      <c r="A203" s="18"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E203" s="11">
         <v>1.0069E-2</v>
       </c>
       <c r="F203" s="2">
@@ -3770,13 +3771,13 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="19"/>
-      <c r="D204" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E204" s="17">
+      <c r="A204" s="18"/>
+      <c r="B204" s="21"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E204" s="11">
         <v>1.4482E-2</v>
       </c>
       <c r="F204" s="2">
@@ -3784,13 +3785,13 @@
       </c>
     </row>
     <row r="205" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="19"/>
-      <c r="D205" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E205" s="17">
+      <c r="A205" s="18"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E205" s="11">
         <v>1.155E-3</v>
       </c>
       <c r="F205" s="2">
@@ -3798,13 +3799,13 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="19"/>
-      <c r="D206" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E206" s="17">
+      <c r="A206" s="18"/>
+      <c r="B206" s="21"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E206" s="11">
         <v>9.3080000000000003E-3</v>
       </c>
       <c r="F206" s="2">
@@ -3812,13 +3813,13 @@
       </c>
     </row>
     <row r="207" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="19"/>
-      <c r="D207" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E207" s="17">
+      <c r="A207" s="18"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E207" s="11">
         <v>1.1733E-2</v>
       </c>
       <c r="F207" s="2">
@@ -3826,13 +3827,13 @@
       </c>
     </row>
     <row r="208" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="19"/>
-      <c r="D208" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E208" s="17">
+      <c r="A208" s="18"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" s="11">
         <v>2.0219999999999998E-2</v>
       </c>
       <c r="F208" s="2">
@@ -3840,13 +3841,13 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="19"/>
-      <c r="D209" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E209" s="17">
+      <c r="A209" s="18"/>
+      <c r="B209" s="21"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E209" s="11">
         <v>1.8259999999999998E-2</v>
       </c>
       <c r="F209" s="2">
@@ -3854,13 +3855,13 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="19"/>
-      <c r="D210" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E210" s="17">
+      <c r="A210" s="18"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="11">
         <v>1.6583000000000001E-2</v>
       </c>
       <c r="F210" s="2">
@@ -3868,13 +3869,13 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="19"/>
-      <c r="D211" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E211" s="17">
+      <c r="A211" s="18"/>
+      <c r="B211" s="21"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E211" s="11">
         <v>1.6546000000000002E-2</v>
       </c>
       <c r="F211" s="2">
@@ -3882,74 +3883,73 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
-      <c r="B212" s="21"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E212" s="24">
+      <c r="A212" s="19"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" s="14">
         <v>2.7113999999999999E-2</v>
       </c>
       <c r="F212" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
+    <row r="213" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
+      <c r="A214" s="27"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
+      <c r="A215" s="27"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
+      <c r="A216" s="27"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A136:A212"/>
-    <mergeCell ref="B136:B212"/>
-    <mergeCell ref="C136:C212"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="A214:F216"/>
-    <mergeCell ref="A43:A135"/>
-    <mergeCell ref="B43:B120"/>
-    <mergeCell ref="C43:C120"/>
-    <mergeCell ref="B121:B135"/>
-    <mergeCell ref="C121:C135"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A42"/>
     <mergeCell ref="B3:B22"/>
     <mergeCell ref="C3:C22"/>
     <mergeCell ref="B23:B42"/>
     <mergeCell ref="C23:C42"/>
+    <mergeCell ref="A43:A135"/>
+    <mergeCell ref="B43:B120"/>
+    <mergeCell ref="C43:C120"/>
+    <mergeCell ref="B121:B135"/>
+    <mergeCell ref="C121:C135"/>
+    <mergeCell ref="A136:A212"/>
+    <mergeCell ref="B136:B212"/>
+    <mergeCell ref="C136:C212"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A214:F216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>